--- a/vhdl automation file .xlsx
+++ b/vhdl automation file .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\const desktop files- do not remove\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C5677-55B5-4B7F-8072-85711A33579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AF694-B2A3-486B-9C51-BAC0735ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
   </bookViews>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="&quot;f(&quot;\ 0&quot;) &lt;= a&quot;"/>
-    <numFmt numFmtId="169" formatCode="0&quot;;&quot;"/>
-    <numFmt numFmtId="170" formatCode="&quot;a&quot;0&quot;&lt;=&quot;"/>
-    <numFmt numFmtId="171" formatCode="&quot;b(&quot;0&quot;);&quot;\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;f(&quot;\ 0&quot;) &lt;= a&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot;;&quot;"/>
+    <numFmt numFmtId="170" formatCode="&quot;b(&quot;0&quot;)&lt;=&quot;"/>
+    <numFmt numFmtId="171" formatCode="&quot;a&quot;0&quot;;&quot;\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -87,8 +87,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>

--- a/vhdl automation file .xlsx
+++ b/vhdl automation file .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\const desktop files- do not remove\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AF694-B2A3-486B-9C51-BAC0735ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D768F172-6D5B-47A4-960C-642A5A4439EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
   </bookViews>
@@ -53,8 +53,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;f(&quot;\ 0&quot;) &lt;= a&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot;;&quot;"/>
-    <numFmt numFmtId="170" formatCode="&quot;b(&quot;0&quot;)&lt;=&quot;"/>
-    <numFmt numFmtId="171" formatCode="&quot;a&quot;0&quot;;&quot;\ "/>
+    <numFmt numFmtId="168" formatCode="&quot;c(&quot;0&quot;)&lt;=&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;d&quot;0&quot;;&quot;\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,8 +89,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +408,7 @@
   <dimension ref="E6:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F22"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
